--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_327__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_327__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,28 +5417,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>1.737775564193726</c:v>
+                  <c:v>1.737774014472961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.6431165337562561</c:v>
+                  <c:v>-0.6431224346160889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52.68408966064453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.02400970458984</c:v>
+                  <c:v>69.02402496337891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.66139221191406</c:v>
+                  <c:v>94.661376953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.16035461425781</c:v>
+                  <c:v>85.16033935546875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.083608508110046</c:v>
+                  <c:v>1.08359968662262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.478134155273438</c:v>
+                  <c:v>2.478142976760864</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>90.90399932861328</c:v>
@@ -5447,100 +5447,100 @@
                   <c:v>1.578843235969543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.32028198242188</c:v>
+                  <c:v>95.32028961181641</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.066388368606567</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.547314882278442</c:v>
+                  <c:v>1.547313451766968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.88280487060547</c:v>
+                  <c:v>39.8829345703125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.44450378417969</c:v>
+                  <c:v>95.44448852539062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.05764007568359</c:v>
+                  <c:v>79.05768585205078</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59.58272552490234</c:v>
+                  <c:v>59.58269500732422</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.38182830810547</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.743818402290344</c:v>
+                  <c:v>1.743819952011108</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>84.45835113525391</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.08521270751953</c:v>
+                  <c:v>79.08522033691406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87.35504913330078</c:v>
+                  <c:v>87.35503387451172</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.696364521980286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8656784892082214</c:v>
+                  <c:v>0.8656858801841736</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.238056063652039</c:v>
+                  <c:v>1.238060474395752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8338348865509033</c:v>
+                  <c:v>0.8338290452957153</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.744163036346436</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.691541075706482</c:v>
+                  <c:v>1.691547036170959</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.44268035888672</c:v>
+                  <c:v>73.44266510009766</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.379021525382996</c:v>
+                  <c:v>1.379025936126709</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>95.06495666503906</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>91.01113891601562</c:v>
+                  <c:v>91.01112365722656</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7832468748092651</c:v>
+                  <c:v>0.7832439541816711</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79.69026947021484</c:v>
+                  <c:v>79.69026184082031</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.009420082904398441</c:v>
+                  <c:v>0.0094186095520854</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95.26004791259766</c:v>
+                  <c:v>95.26003265380859</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.738697528839111</c:v>
+                  <c:v>1.738698959350586</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.42609405517578</c:v>
+                  <c:v>85.42611694335938</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>82.3775634765625</c:v>
+                  <c:v>82.37757873535156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.12666320800781</c:v>
+                  <c:v>27.12662124633789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.09203338623047</c:v>
+                  <c:v>95.092041015625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7444722652435303</c:v>
+                  <c:v>0.7444737553596497</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>89.74010467529297</c:v>
@@ -5549,49 +5549,49 @@
                   <c:v>88.04227447509766</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.7384543418884277</c:v>
+                  <c:v>0.7384573221206665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.621180653572083</c:v>
+                  <c:v>1.621174693107605</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95.14253234863281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.560441970825195</c:v>
+                  <c:v>1.560440540313721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.745721340179443</c:v>
+                  <c:v>1.745722770690918</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.07476043701172</c:v>
+                  <c:v>95.07474517822266</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>76.85084533691406</c:v>
+                  <c:v>76.85086059570312</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.641308069229126</c:v>
+                  <c:v>1.641312479972839</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>93.74109649658203</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90.76781463623047</c:v>
+                  <c:v>90.76782989501953</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>95.37009429931641</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.626613855361938</c:v>
+                  <c:v>1.626615285873413</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95.31193542480469</c:v>
+                  <c:v>95.31195831298828</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>94.93244934082031</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.637717366218567</c:v>
+                  <c:v>1.637720227241516</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>92.437744140625</c:v>
@@ -5600,25 +5600,25 @@
                   <c:v>1.684272766113281</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.229534387588501</c:v>
+                  <c:v>1.22953724861145</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.033742189407349</c:v>
+                  <c:v>1.033743619918823</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.8305785059928894</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>95.34820556640625</c:v>
+                  <c:v>95.34821319580078</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.377769589424133</c:v>
+                  <c:v>1.377768158912659</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>86.15904235839844</c:v>
+                  <c:v>86.1590576171875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.557288765907288</c:v>
+                  <c:v>1.557290196418762</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>95.38513946533203</c:v>
@@ -5627,13 +5627,13 @@
                   <c:v>93.99703979492188</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>95.38824462890625</c:v>
+                  <c:v>95.38826751708984</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>88.98126220703125</c:v>
+                  <c:v>88.98128509521484</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>93.47929382324219</c:v>
+                  <c:v>93.47927856445312</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.8476719260215759</c:v>
@@ -5651,40 +5651,40 @@
                   <c:v>90.525146484375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.726884126663208</c:v>
+                  <c:v>1.726886987686157</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>71.09648895263672</c:v>
+                  <c:v>71.09649658203125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.80325317382812</c:v>
+                  <c:v>94.80323791503906</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>71.447021484375</c:v>
+                  <c:v>71.44703674316406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.730676531791687</c:v>
+                  <c:v>1.730679512023926</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.711812853813171</c:v>
+                  <c:v>1.711809873580933</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>95.31490325927734</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.119986891746521</c:v>
+                  <c:v>1.119988322257996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1781582683324814</c:v>
+                  <c:v>0.1781612187623978</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>90.44110107421875</c:v>
+                  <c:v>90.44111633300781</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.640957474708557</c:v>
+                  <c:v>1.640959024429321</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.82453155517578</c:v>
+                  <c:v>94.82454681396484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.737775564193726</v>
+        <v>1.737774014472961</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.6431165337562561</v>
+        <v>-0.6431224346160889</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.02400970458984</v>
+        <v>69.02402496337891</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>94.66139221191406</v>
+        <v>94.661376953125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>85.16035461425781</v>
+        <v>85.16033935546875</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.083608508110046</v>
+        <v>1.08359968662262</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.478134155273438</v>
+        <v>2.478142976760864</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>95.32028198242188</v>
+        <v>95.32028961181641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.547314882278442</v>
+        <v>1.547313451766968</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>39.88280487060547</v>
+        <v>39.8829345703125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>95.44450378417969</v>
+        <v>95.44448852539062</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>79.05764007568359</v>
+        <v>79.05768585205078</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>59.58272552490234</v>
+        <v>59.58269500732422</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.743818402290344</v>
+        <v>1.743819952011108</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>79.08521270751953</v>
+        <v>79.08522033691406</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>87.35504913330078</v>
+        <v>87.35503387451172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8656784892082214</v>
+        <v>0.8656858801841736</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.238056063652039</v>
+        <v>1.238060474395752</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.8338348865509033</v>
+        <v>0.8338290452957153</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.691541075706482</v>
+        <v>1.691547036170959</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>73.44268035888672</v>
+        <v>73.44266510009766</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.379021525382996</v>
+        <v>1.379025936126709</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>91.01113891601562</v>
+        <v>91.01112365722656</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.7832468748092651</v>
+        <v>0.7832439541816711</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>79.69026947021484</v>
+        <v>79.69026184082031</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.009420082904398441</v>
+        <v>0.0094186095520854</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>95.26004791259766</v>
+        <v>95.26003265380859</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.738697528839111</v>
+        <v>1.738698959350586</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>85.42609405517578</v>
+        <v>85.42611694335938</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>82.3775634765625</v>
+        <v>82.37757873535156</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>27.12666320800781</v>
+        <v>27.12662124633789</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>95.09203338623047</v>
+        <v>95.092041015625</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.7444722652435303</v>
+        <v>0.7444737553596497</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.7384543418884277</v>
+        <v>0.7384573221206665</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.621180653572083</v>
+        <v>1.621174693107605</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.560441970825195</v>
+        <v>1.560440540313721</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.745721340179443</v>
+        <v>1.745722770690918</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>95.07476043701172</v>
+        <v>95.07474517822266</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>76.85084533691406</v>
+        <v>76.85086059570312</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.641308069229126</v>
+        <v>1.641312479972839</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>90.76781463623047</v>
+        <v>90.76782989501953</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.626613855361938</v>
+        <v>1.626615285873413</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>95.31193542480469</v>
+        <v>95.31195831298828</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.637717366218567</v>
+        <v>1.637720227241516</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.229534387588501</v>
+        <v>1.22953724861145</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.033742189407349</v>
+        <v>1.033743619918823</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>95.34820556640625</v>
+        <v>95.34821319580078</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.377769589424133</v>
+        <v>1.377768158912659</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>86.15904235839844</v>
+        <v>86.1590576171875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.557288765907288</v>
+        <v>1.557290196418762</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>95.38824462890625</v>
+        <v>95.38826751708984</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>88.98126220703125</v>
+        <v>88.98128509521484</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>93.47929382324219</v>
+        <v>93.47927856445312</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.726884126663208</v>
+        <v>1.726886987686157</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>71.09648895263672</v>
+        <v>71.09649658203125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.80325317382812</v>
+        <v>94.80323791503906</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>71.447021484375</v>
+        <v>71.44703674316406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.730676531791687</v>
+        <v>1.730679512023926</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.711812853813171</v>
+        <v>1.711809873580933</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.119986891746521</v>
+        <v>1.119988322257996</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.1781582683324814</v>
+        <v>0.1781612187623978</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>90.44110107421875</v>
+        <v>90.44111633300781</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.640957474708557</v>
+        <v>1.640959024429321</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>94.82453155517578</v>
+        <v>94.82454681396484</v>
       </c>
     </row>
     <row r="92" spans="1:6">
